--- a/biology/Botanique/Cucumis_metulifer/Cucumis_metulifer.xlsx
+++ b/biology/Botanique/Cucumis_metulifer/Cucumis_metulifer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cucumis metulifer est une espèce de plantes à fleurs de la famille des Cucurbitacées, originaire des régions tropicales d'Afrique et d'Arabie (Yémen).
-Son fruit, le kiwano est comestible. Il est également appelé métulon, melano, concombre cornu d'Afrique ou encore melon à corne[1].
+Son fruit, le kiwano est comestible. Il est également appelé métulon, melano, concombre cornu d'Afrique ou encore melon à corne.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cucumis metuliferus E.Mey. ex Naudin - L'auteur a décrit l'espèce sous ce nom, mais la terminaison, erronée, fut corrigée.</t>
         </is>
@@ -542,7 +556,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit de ce concombre est de couleur orange. Il mesure environ dix centimètres. L'intérieur du fruit est vert et contient de nombreuses graines, sa pulpe est légèrement gluante. Le jus a un goût de banane et de kiwi, voire de concombre ou de framboise.
 </t>
@@ -573,7 +589,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kiwano se cultive principalement au sud et au centre de l'Afrique, mais aussi aux États-Unis, en Espagne, au Portugal, en France, en Israel, au Kenya et en Nouvelle-Zélande.
 En zone tropicale, il peut être attaqué par la pyrale des cucurbitacées ou le thrips du melon.
@@ -605,21 +623,93 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Bien qu'il soit un fruit, ses nombreux pépins le rendent peu appréciable, c'est pour cela qu'il est beaucoup plus utilisé en tant qu'élément décoratif ou ornemental tel que le sont les coloquintes (cucurbitacées apparentés aux courges).
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bien qu'il soit un fruit, ses nombreux pépins le rendent peu appréciable, c'est pour cela qu'il est beaucoup plus utilisé en tant qu'élément décoratif ou ornemental tel que le sont les coloquintes (cucurbitacées apparentés aux courges).
 Certaines tribus[Lesquelles ?] l'utilisent contre les esprits[réf. nécessaire].
-Alimentation
-Il se mange principalement en tant que dessert, par exemple en sorbet ou en confiture[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cucumis_metulifer</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucumis_metulifer</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Alimentation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se mange principalement en tant que dessert, par exemple en sorbet ou en confiture.
 C'est un fruit surprenant à cause de sa couleur contrastée d'orange et de vert translucide.
 Ce fruit se consomme cru, à la petite cuillère. On peut le couper soit dans la longueur soit dans la largeur, tout dépend du dessin que l'on désire obtenir dans l'assiette.
 On peut y ajouter un trait de sirop d’érable.
-On peut le faire en vinaigrette ou en sauce salée[1].
+On peut le faire en vinaigrette ou en sauce salée.
 Il peut servir de base à un sirop de salade de fruits.
-Dans le désert du Kalahari, le fruit sauvage est, avec le concombre sauvage (Acanthosicyos  naudinianus), la seule source d'eau disponible pendant la période de sécheresse[2].
-Toxicité
-À l'état naturel, le kiwano contient des traces de cucurbitacines qui rendent le fruit extrêmement amer. Ces composés sont toxiques pour les mammifères, et provoquent des vomissements, coliques et fortes diarrhées. Toutefois les kiwanos de culture, que nous trouvons sur le marché, sont dépourvus de cucurbitacine et ne sont ni toxiques ni amers.
-Apports nutritifs</t>
+Dans le désert du Kalahari, le fruit sauvage est, avec le concombre sauvage (Acanthosicyos  naudinianus), la seule source d'eau disponible pendant la période de sécheresse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cucumis_metulifer</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cucumis_metulifer</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Toxicité</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'état naturel, le kiwano contient des traces de cucurbitacines qui rendent le fruit extrêmement amer. Ces composés sont toxiques pour les mammifères, et provoquent des vomissements, coliques et fortes diarrhées. Toutefois les kiwanos de culture, que nous trouvons sur le marché, sont dépourvus de cucurbitacine et ne sont ni toxiques ni amers.
+</t>
         </is>
       </c>
     </row>
